--- a/data/excel/cpi1995.xlsx
+++ b/data/excel/cpi1995.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Country</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +521,7 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -528,8 +531,11 @@
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>RANK(C2,$C$2:$C$39,0)</f>
         <v>1</v>
@@ -540,8 +546,11 @@
       <c r="C2" s="2">
         <v>9.5500000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A39" si="0">RANK(C3,$C$2:$C$39,0)</f>
         <v>2</v>
@@ -552,8 +561,11 @@
       <c r="C3" s="2">
         <v>9.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -564,8 +576,11 @@
       <c r="C4" s="2">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -576,8 +591,11 @@
       <c r="C5" s="2">
         <v>9.1199999999999992</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -588,8 +606,11 @@
       <c r="C6" s="2">
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -600,8 +621,11 @@
       <c r="C7" s="2">
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -612,8 +636,11 @@
       <c r="C8" s="2">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -624,8 +651,11 @@
       <c r="C9" s="2">
         <v>8.76</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -636,8 +666,11 @@
       <c r="C10" s="2">
         <v>8.69</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -648,8 +681,11 @@
       <c r="C11" s="2">
         <v>8.61</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -660,8 +696,11 @@
       <c r="C12" s="2">
         <v>8.57</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -672,8 +711,11 @@
       <c r="C13" s="2">
         <v>8.57</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -684,8 +726,11 @@
       <c r="C14" s="2">
         <v>8.14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -696,8 +741,11 @@
       <c r="C15" s="2">
         <v>7.94</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -708,8 +756,11 @@
       <c r="C16" s="2">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -720,8 +771,11 @@
       <c r="C17" s="2">
         <v>7.13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -732,8 +786,11 @@
       <c r="C18" s="2">
         <v>7.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -744,8 +801,11 @@
       <c r="C19" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -756,8 +816,11 @@
       <c r="C20" s="2">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -768,8 +831,11 @@
       <c r="C21" s="2">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -780,8 +846,11 @@
       <c r="C22" s="2">
         <v>5.62</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -792,8 +861,11 @@
       <c r="C23" s="2">
         <v>5.56</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -804,8 +876,11 @@
       <c r="C24" s="2">
         <v>5.28</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -816,8 +891,11 @@
       <c r="C25" s="2">
         <v>5.24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -828,8 +906,11 @@
       <c r="C26" s="2">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -840,8 +921,11 @@
       <c r="C27" s="2">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -852,8 +936,11 @@
       <c r="C28" s="2">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -864,8 +951,11 @@
       <c r="C29" s="2">
         <v>4.12</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -876,8 +966,11 @@
       <c r="C30" s="2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -888,8 +981,11 @@
       <c r="C31" s="2">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -900,8 +996,11 @@
       <c r="C32" s="2">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -912,8 +1011,11 @@
       <c r="C33" s="2">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -924,8 +1026,11 @@
       <c r="C34" s="2">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -936,8 +1041,11 @@
       <c r="C35" s="2">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -948,8 +1056,11 @@
       <c r="C36" s="2">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -960,8 +1071,11 @@
       <c r="C37" s="2">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -972,8 +1086,11 @@
       <c r="C38" s="2">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -983,6 +1100,9 @@
       </c>
       <c r="C39" s="2">
         <v>2.66</v>
+      </c>
+      <c r="D39">
+        <v>1995</v>
       </c>
     </row>
   </sheetData>
